--- a/guide/QC 수행내역.xlsx
+++ b/guide/QC 수행내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmpark1115/PycharmProjects/CryptoDashdb2/CrytpDashbd/guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC42F2EE-F3AF-0248-BF89-82A8EDB148D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6699B-462B-7941-9E7E-C637CC719753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
   </bookViews>
   <sheets>
     <sheet name="QC1차(240613)" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -798,6 +798,46 @@
   </si>
   <si>
     <t>박</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit threshold 단위 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit thershold ($),</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit threashold, Days Until expiry 직접입력 칸 필요 (스크롤 해서 원하는 구간 맞추기가 어려움)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">profit, totalFell, totalCost $ 단위 표시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalFee ($), totalCost($), Profit/Q ($)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchanges 거래소 명 앞에 거래소별 아이콘 넣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       BYBIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exchanges 거래소 다수 선택 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL 이외 거래소 여러 거래소 선택 가능해야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +846,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -962,6 +1002,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,21 +1033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,6 +1050,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6900E449-29DE-C34C-A062-32AB583C8828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6375400" y="2019300"/>
+          <a:ext cx="279400" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1309,43 +1398,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C8F7D3-6B07-B04E-B62F-8A341778D4E1}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="15" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="12" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1449,7 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1398,63 +1487,73 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="20"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+    <row r="4" spans="1:15" ht="19">
+      <c r="A4" s="3">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="38">
+    <row r="5" spans="1:15" ht="57">
       <c r="A5" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="H5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="38">
+    <row r="6" spans="1:15" ht="19">
       <c r="A6" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -1462,98 +1561,88 @@
       <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="17"/>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19">
+    <row r="7" spans="1:15" ht="38">
       <c r="A7" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="17"/>
+      <c r="H7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19">
+    <row r="8" spans="1:15" ht="38">
       <c r="A8" s="3">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="20"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="38">
-      <c r="A9" s="3">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1562,131 +1651,131 @@
     </row>
     <row r="10" spans="1:15" ht="38">
       <c r="A10" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19">
+    <row r="11" spans="1:15" ht="38">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="I11" s="11"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38">
+    <row r="12" spans="1:15" ht="19">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="19">
       <c r="A13" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19">
+    <row r="14" spans="1:15" ht="38">
       <c r="A14" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
+      <c r="D14" s="14"/>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>51</v>
+      <c r="I14" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1696,27 +1785,25 @@
     </row>
     <row r="15" spans="1:15" ht="38">
       <c r="A15" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>52</v>
+      <c r="I15" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1724,28 +1811,24 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="38">
+    <row r="16" spans="1:15" ht="19">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="3"/>
@@ -1754,30 +1837,26 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="49" customHeight="1">
+    <row r="17" spans="1:14" ht="38">
       <c r="A17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="20"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="3"/>
@@ -1786,34 +1865,22 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="38">
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="20">
-        <v>45457</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="I18" s="11"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1822,30 +1889,26 @@
     </row>
     <row r="19" spans="1:14" ht="19">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="20">
-        <v>45457</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J19" s="3"/>
@@ -1854,33 +1917,29 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="19">
+    <row r="20" spans="1:14" ht="38">
       <c r="A20" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="20">
-        <v>45457</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>51</v>
+      <c r="I20" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1888,48 +1947,212 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="19">
+    <row r="21" spans="1:14" ht="38">
       <c r="A21" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="20">
-        <v>45457</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="I21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="19">
-      <c r="E23" s="10" t="s">
+    <row r="22" spans="1:14" ht="49" customHeight="1">
+      <c r="A22" s="3">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="38">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14">
+        <v>45457</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="19">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14">
+        <v>45457</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="19">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14">
+        <v>45457</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="19">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="14">
+        <v>45457</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="19">
+      <c r="E28" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1940,6 +2163,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/guide/QC 수행내역.xlsx
+++ b/guide/QC 수행내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmpark1115/PycharmProjects/CryptoDashdb2/CrytpDashbd/guide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\PycharmProjects\CrytpDashbd\guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6699B-462B-7941-9E7E-C637CC719753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E348E-663B-49D7-B2D3-B52E891C824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
+    <workbookView xWindow="28860" yWindow="0" windowWidth="32820" windowHeight="16035" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
   </bookViews>
   <sheets>
     <sheet name="QC1차(240613)" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -619,10 +619,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -838,6 +834,22 @@
   </si>
   <si>
     <t>이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 이미지 확보 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 간격이 넓어짐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1102,9 +1114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1142,7 +1154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1248,7 +1260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1390,7 +1402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1401,18 +1413,19 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="12" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1439,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1459,13 +1472,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>10</v>
@@ -1499,35 +1512,37 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="19">
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="57">
+    <row r="5" spans="1:15" ht="51.75">
       <c r="A5" s="3">
         <v>21</v>
       </c>
@@ -1537,77 +1552,87 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19">
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="38">
+      <c r="N6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="34.5">
       <c r="A7" s="3">
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="38">
+      <c r="N7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="34.5">
       <c r="A8" s="3">
         <v>18</v>
       </c>
@@ -1617,19 +1642,21 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
@@ -1649,111 +1676,119 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="38">
+    <row r="10" spans="1:15" ht="51.75">
       <c r="A10" s="3">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="38">
+    <row r="11" spans="1:15" ht="34.5">
       <c r="A11" s="3">
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19">
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19">
+    <row r="13" spans="1:15" ht="34.5">
       <c r="A13" s="3">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="38">
+    <row r="14" spans="1:15" ht="34.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1763,105 +1798,113 @@
       <c r="C14" s="3"/>
       <c r="D14" s="14"/>
       <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="38">
+    <row r="15" spans="1:15" ht="34.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19">
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
       <c r="H16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="38">
+    <row r="17" spans="1:14" ht="34.5">
       <c r="A17" s="3">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
@@ -1870,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="14"/>
@@ -1878,7 +1921,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="H18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="3"/>
@@ -1887,37 +1930,39 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="19">
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="14"/>
       <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="38">
+    <row r="20" spans="1:14" ht="34.5">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -1927,89 +1972,95 @@
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
       <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="38">
+    <row r="21" spans="1:14" ht="34.5">
       <c r="A21" s="3">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="49" customHeight="1">
+    <row r="22" spans="1:14" ht="48.95" customHeight="1">
       <c r="A22" s="3">
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="38">
+    <row r="23" spans="1:14" ht="34.5">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -2017,33 +2068,35 @@
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="14">
         <v>45457</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="19">
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2051,33 +2104,35 @@
         <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="14">
         <v>45457</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="19">
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -2085,33 +2140,35 @@
         <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="14">
         <v>45457</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="19">
+    <row r="26" spans="1:14" ht="34.5">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2125,35 +2182,35 @@
         <v>45457</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="19">
+    <row r="28" spans="1:14" ht="34.5">
       <c r="E28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/guide/QC 수행내역.xlsx
+++ b/guide/QC 수행내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\PycharmProjects\CrytpDashbd\guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E348E-663B-49D7-B2D3-B52E891C824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6491AE2-A695-42F9-AE1A-F97EA381B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="0" windowWidth="32820" windowHeight="16035" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
   </bookViews>
   <sheets>
     <sheet name="QC1차(240613)" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -850,6 +850,10 @@
   </si>
   <si>
     <t>컬럼 간격이 넓어짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 버튼은 Toggle 기능으로  PC화면에서 해당 윈쪽 메뉴를 접을 경우 모바일 환경에서 왼쪽메뉴가 기본으로 나타나는 문제가 이음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +904,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,6 +914,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1056,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,9 +1437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C8F7D3-6B07-B04E-B62F-8A341778D4E1}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1569,66 +1594,66 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3">
+      <c r="A6" s="22">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="34.5">
-      <c r="A7" s="3">
+      <c r="A7" s="22">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2097,40 +2122,42 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="3">
+      <c r="A24" s="22">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="23">
         <v>45457</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3">

--- a/guide/QC 수행내역.xlsx
+++ b/guide/QC 수행내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\PycharmProjects\CrytpDashbd\guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmpark1115/PycharmProjects/CryptoDashdb2/CrytpDashbd/guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6491AE2-A695-42F9-AE1A-F97EA381B5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E13FBD1-CA23-D04A-81D5-3996669D2691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{69481BB8-F480-A740-85EA-CA539D59A23B}"/>
   </bookViews>
   <sheets>
     <sheet name="QC1차(240613)" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,17 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)</t>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
         </r>
         <r>
           <rPr>
@@ -253,7 +263,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>중</t>
+          <t>선택하며</t>
         </r>
         <r>
           <rPr>
@@ -273,26 +283,6 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>선택하며</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
           <t>현상태진행</t>
         </r>
         <r>
@@ -303,17 +293,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">, </t>
         </r>
         <r>
           <rPr>
@@ -549,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -773,10 +753,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright c Your Website 2023 -&gt; Copyright c Your Website 로 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Privacy Policy, Terms &amp; Conditions 아래 contact : contact9853@gmail.com 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -854,6 +830,22 @@
   </si>
   <si>
     <t>해당 버튼은 Toggle 기능으로  PC화면에서 해당 윈쪽 메뉴를 접을 경우 모바일 환경에서 왼쪽메뉴가 기본으로 나타나는 문제가 이음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 메뉴 hidden 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright c Your Website 2023 -&gt; Copyright c Crytopang.com 로 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cryptopang.com 으로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,6 +1031,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,19 +1064,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,16 +1103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2768600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1125,8 +1135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6375400" y="2019300"/>
-          <a:ext cx="279400" cy="279400"/>
+          <a:off x="6096000" y="1727200"/>
+          <a:ext cx="279400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,9 +1149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1179,7 +1189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1285,7 +1295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1427,7 +1437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1439,45 +1449,45 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="12" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="19">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1537,7 +1547,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="19">
       <c r="A4" s="3">
         <v>22</v>
       </c>
@@ -1549,25 +1559,27 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="51.75">
+    <row r="5" spans="1:15" ht="57">
       <c r="A5" s="3">
         <v>21</v>
       </c>
@@ -1577,87 +1589,93 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="22">
+    <row r="6" spans="1:15" s="31" customFormat="1" ht="19">
+      <c r="A6" s="27">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="31" customFormat="1" ht="38">
+      <c r="A7" s="27">
+        <v>19</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="F7" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="34.5">
-      <c r="A7" s="22">
-        <v>19</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="34.5">
+    </row>
+    <row r="8" spans="1:15" ht="38">
       <c r="A8" s="3">
         <v>18</v>
       </c>
@@ -1667,20 +1685,22 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1701,7 +1721,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="51.75">
+    <row r="10" spans="1:15" ht="38">
       <c r="A10" s="3">
         <v>17</v>
       </c>
@@ -1713,51 +1733,57 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="34.5">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" s="20" customFormat="1" ht="38">
+      <c r="A11" s="16">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -1774,18 +1800,20 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="34.5">
+    <row r="13" spans="1:15" ht="19">
       <c r="A13" s="3">
         <v>14</v>
       </c>
@@ -1802,18 +1830,20 @@
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="34.5">
+    <row r="14" spans="1:15" ht="38">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1832,20 +1862,22 @@
         <v>47</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="34.5">
+    <row r="15" spans="1:15" ht="38">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1862,20 +1894,22 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="19">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1890,20 +1924,22 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
       <c r="H16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="34.5">
+    <row r="17" spans="1:14" ht="38">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -1920,15 +1956,17 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1946,7 +1984,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="H18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="3"/>
@@ -1955,7 +1993,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="19">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -1974,20 +2012,22 @@
         <v>37</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="34.5">
+    <row r="20" spans="1:14" ht="38">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -2006,20 +2046,22 @@
         <v>34</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="34.5">
+    <row r="21" spans="1:14" ht="38">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2038,20 +2080,22 @@
         <v>26</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="48.95" customHeight="1">
+    <row r="22" spans="1:14" ht="49" customHeight="1">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -2072,94 +2116,101 @@
         <v>26</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="34.5">
-      <c r="A23" s="3">
+    <row r="23" spans="1:14" s="20" customFormat="1" ht="38">
+      <c r="A23" s="16">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="17">
         <v>45457</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
+      <c r="J23" s="16"/>
+      <c r="K23" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="31" customFormat="1" ht="19">
+      <c r="A24" s="27">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="28">
+        <v>45457</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="22">
-        <v>3</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="23">
-        <v>45457</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -2182,20 +2233,22 @@
         <v>26</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="34.5">
+    <row r="26" spans="1:14" ht="19">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2218,7 +2271,7 @@
         <v>27</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>50</v>
@@ -2227,17 +2280,17 @@
         <v>17</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="34.5">
+    <row r="28" spans="1:14" ht="19">
       <c r="E28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
